--- a/biology/Zoologie/Anabate_à_grands_sourcils/Anabate_à_grands_sourcils.xlsx
+++ b/biology/Zoologie/Anabate_à_grands_sourcils/Anabate_à_grands_sourcils.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_grands_sourcils</t>
+          <t>Anabate_à_grands_sourcils</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anabazenops dorsalis
-L’Anabate à grands sourcils[1] (Anabazenops dorsalis) est une espèce d'oiseaux de la famille des Furnariidae. Cette espèce vit dans les Andes, de la Colombie à la Bolivie, et dans deux zones situées en Amazonie.
+L’Anabate à grands sourcils (Anabazenops dorsalis) est une espèce d'oiseaux de la famille des Furnariidae. Cette espèce vit dans les Andes, de la Colombie à la Bolivie, et dans deux zones situées en Amazonie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_grands_sourcils</t>
+          <t>Anabate_à_grands_sourcils</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anabazenops dorsalis (P.L.Sclater &amp; Salvin, 1880)[1].
-L'espèce a été initialement classée dans le genre Automolus sous le protonyme Automolus dorsalis P.L.Sclater &amp; Salvin, 1880[1],[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabate à grands sourcils[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Anabazenops dorsalis (P.L.Sclater &amp; Salvin, 1880).
+L'espèce a été initialement classée dans le genre Automolus sous le protonyme Automolus dorsalis P.L.Sclater &amp; Salvin, 1880,.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Anabate à grands sourcils.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anabate_%C3%A0_grands_sourcils</t>
+          <t>Anabate_à_grands_sourcils</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en + la) P. L. Sclater et O. Salvin, « On New Birds Collected by Mr. C. Buckley in Eastern Ecuador », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 1880,‎ 1880, p. 155-161 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, lire en ligne)</t>
         </is>
